--- a/FDCSM/management/excel_templates/initial_students.xlsx
+++ b/FDCSM/management/excel_templates/initial_students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\zhangwn2\source\2025FDCS\FDCSM\management\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ZhangWeinian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2303992F-4715-4910-81D4-E0456F8B7D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DD951B-4CF4-43CB-8951-2DF31A41F8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6730" yWindow="9990" windowWidth="25420" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="25420" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,109 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
-  <si>
-    <t>stu001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stu_name1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stu_pd1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理专业</t>
-  </si>
-  <si>
-    <t>stu002</t>
-  </si>
-  <si>
-    <t>stu003</t>
-  </si>
-  <si>
-    <t>stu004</t>
-  </si>
-  <si>
-    <t>stu005</t>
-  </si>
-  <si>
-    <t>stu006</t>
-  </si>
-  <si>
-    <t>stu007</t>
-  </si>
-  <si>
-    <t>stu008</t>
-  </si>
-  <si>
-    <t>stu009</t>
-  </si>
-  <si>
-    <t>stu010</t>
-  </si>
-  <si>
-    <t>stu_name2</t>
-  </si>
-  <si>
-    <t>stu_name3</t>
-  </si>
-  <si>
-    <t>stu_name4</t>
-  </si>
-  <si>
-    <t>stu_name5</t>
-  </si>
-  <si>
-    <t>stu_name6</t>
-  </si>
-  <si>
-    <t>stu_name7</t>
-  </si>
-  <si>
-    <t>stu_name8</t>
-  </si>
-  <si>
-    <t>stu_name9</t>
-  </si>
-  <si>
-    <t>stu_name10</t>
-  </si>
-  <si>
-    <t>stu_pd2</t>
-  </si>
-  <si>
-    <t>stu_pd3</t>
-  </si>
-  <si>
-    <t>stu_pd4</t>
-  </si>
-  <si>
-    <t>stu_pd5</t>
-  </si>
-  <si>
-    <t>stu_pd6</t>
-  </si>
-  <si>
-    <t>stu_pd7</t>
-  </si>
-  <si>
-    <t>stu_pd8</t>
-  </si>
-  <si>
-    <t>stu_pd9</t>
-  </si>
-  <si>
-    <t>stu_pd10</t>
-  </si>
-  <si>
-    <t>数学专业</t>
-  </si>
-  <si>
-    <t>系统科学专业</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>学生登录账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,10 +44,6 @@
   </si>
   <si>
     <t>学生登录密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理专业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -694,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -711,156 +605,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/FDCSM/management/excel_templates/initial_students.xlsx
+++ b/FDCSM/management/excel_templates/initial_students.xlsx
@@ -5,49 +5,145 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ZhangWeinian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\zhangwn2\source\2025FDCS\FDCSM\management\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DD951B-4CF4-43CB-8951-2DF31A41F8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3ABE4A-A7BA-47C5-904D-D6CBBA92E4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="25420" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4520" yWindow="4520" windowWidth="25420" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>学生登录账号</t>
+  </si>
+  <si>
+    <t>学生姓名</t>
+  </si>
+  <si>
+    <t>学生登录密码</t>
+  </si>
+  <si>
+    <t>学生专业（物理专业/数学专业/系统科学专业/应用统计专业/纳米科学与工程专业）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学生姓名</t>
+    <t>stu001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学生登录密码</t>
+    <t>stu_name1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学生专业（物理专业/数学专业/系统科学专业）</t>
+    <t>stu_pd1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理专业</t>
+  </si>
+  <si>
+    <t>stu002</t>
+  </si>
+  <si>
+    <t>stu003</t>
+  </si>
+  <si>
+    <t>stu004</t>
+  </si>
+  <si>
+    <t>stu005</t>
+  </si>
+  <si>
+    <t>stu006</t>
+  </si>
+  <si>
+    <t>stu007</t>
+  </si>
+  <si>
+    <t>stu008</t>
+  </si>
+  <si>
+    <t>stu009</t>
+  </si>
+  <si>
+    <t>stu010</t>
+  </si>
+  <si>
+    <t>stu_name2</t>
+  </si>
+  <si>
+    <t>stu_name3</t>
+  </si>
+  <si>
+    <t>stu_name4</t>
+  </si>
+  <si>
+    <t>stu_name5</t>
+  </si>
+  <si>
+    <t>stu_name6</t>
+  </si>
+  <si>
+    <t>stu_name7</t>
+  </si>
+  <si>
+    <t>stu_name8</t>
+  </si>
+  <si>
+    <t>stu_name9</t>
+  </si>
+  <si>
+    <t>stu_name10</t>
+  </si>
+  <si>
+    <t>stu_pd2</t>
+  </si>
+  <si>
+    <t>stu_pd3</t>
+  </si>
+  <si>
+    <t>stu_pd4</t>
+  </si>
+  <si>
+    <t>stu_pd5</t>
+  </si>
+  <si>
+    <t>stu_pd6</t>
+  </si>
+  <si>
+    <t>stu_pd7</t>
+  </si>
+  <si>
+    <t>stu_pd8</t>
+  </si>
+  <si>
+    <t>stu_pd9</t>
+  </si>
+  <si>
+    <t>stu_pd10</t>
+  </si>
+  <si>
+    <t>数学专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统科学专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用统计专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳米科学与工程专业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,8 +162,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,7 +399,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -314,7 +408,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -588,33 +682,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.90625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="14.08984375" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" customWidth="1"/>
+    <col min="4" max="4" width="47.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
